--- a/МПОР1.xlsx
+++ b/МПОР1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CCC031-D8C9-4E82-AF5E-4EFF5CBB145E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2415" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="6105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -555,13 +554,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X19"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -1521,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A801AE8C-CF16-4030-B891-B07ECDB7C6A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
@@ -1563,7 +1562,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -1581,7 +1580,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="77" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -1598,7 +1597,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -1614,7 +1613,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -1971,17 +1970,17 @@
       <c r="A21" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, K13/E13, "-")</f>
         <v>-</v>
@@ -2006,19 +2005,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="J25" s="77" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="J25" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -2297,56 +2296,56 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, K28/D28, "-")</f>
         <v>400</v>
@@ -2371,19 +2370,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="J40" s="77" t="s">
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="J40" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -2662,56 +2661,56 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272751</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, K43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -2736,19 +2735,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="J55" s="77" t="s">
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="J55" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -3098,16 +3097,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A34:L34"/>
     <mergeCell ref="A51:L51"/>
     <mergeCell ref="J55:L55"/>
     <mergeCell ref="A55:F55"/>
@@ -3116,6 +3105,16 @@
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A49:L49"/>
     <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3123,11 +3122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192C21CB-065D-4E8A-A8F9-8412DF457B10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64:H67"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3164,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -3183,7 +3182,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="77" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -3200,7 +3199,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -3216,7 +3215,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -3561,17 +3560,17 @@
       <c r="A21" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, I13/E13, "-")</f>
         <v>-</v>
@@ -3596,19 +3595,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="J25" s="77" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="J25" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -3851,56 +3850,56 @@
       <c r="K32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, I28/D28, "-")</f>
         <v>400</v>
@@ -3925,19 +3924,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="J40" s="77" t="s">
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="J40" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -4180,56 +4179,56 @@
       <c r="K47"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272716</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, I43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -4254,19 +4253,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="J55" s="77" t="s">
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="J55" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -4584,6 +4583,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="J55:L55"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="A2:A3"/>
@@ -4597,11 +4601,6 @@
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A35:L35"/>
     <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="J55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
